--- a/last_chance_experiments/GSDs/LC3_grain_size_dist_higher_res.xlsx
+++ b/last_chance_experiments/GSDs/LC3_grain_size_dist_higher_res.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\MultiGrain\working_folder\GSDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\MultiGrain\last_chance_experiments\GSDs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2A3509-DF4C-485A-ACEC-E1F28B4217A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57800E-1928-4167-B1C0-E6E300BDB3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,8 +370,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
